--- a/data/jeffbezos_2020-04-04_1640/data.xlsx
+++ b/data/jeffbezos_2020-04-04_1640/data.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,30 +380,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>isRetweet</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>replies</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>retweets</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>likes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>hashtags</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -417,24 +422,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2244</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>620</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>6426</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['#BezosEarthFund', '#ClimatePledge']</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Discussing climate, sustainability, and preserving the natural world with President @EmmanuelMacron today in Paris. #BezosEarthFund #ClimatePledge pic.twitter.com/1WJe18nc3l</t>
         </is>
@@ -448,24 +458,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>8929</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>7235</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>67927</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['#SBLIV']</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>I just took a DNA test, turns out I’m 100% @lizzo’s biggest fan. #SBLIV pic.twitter.com/RhOduXk8Qd</t>
         </is>
@@ -479,24 +494,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>815</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1394</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8071</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hey, Alexa — show everyone our upcoming Super Bowl ad. Thanks @TheEllenShow and @PortiaDeRossi! pic.twitter.com/U8Qua3dhwg</t>
         </is>
@@ -510,24 +530,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>3518</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>5465</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>28748</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['#Jamal']</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>#Jamal pic.twitter.com/8ej1rUBXVb</t>
         </is>
@@ -541,24 +566,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3123</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>8466</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>52971</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['#ClimatePledge']</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hey, India. We’re rolling out our new fleet of electric delivery rickshaws. Fully electric. Zero carbon. #ClimatePledge pic.twitter.com/qFXdZOsY4y</t>
         </is>
@@ -572,24 +602,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>757</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1853</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>16980</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Proud of the program we have in India to hire and train deaf associates at our delivery stations. Managers learn basic sign language to be able to communicate. Meeting this group was a moving experience for me. pic.twitter.com/gGm0dvCjkX</t>
         </is>
@@ -603,24 +638,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>862</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>2110</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>19266</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['#MSME']</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amazon partners with thousands of kirana stores all over India as delivery points. It’s good for customers, and it helps the shop owners earn additional income. Got to visit one in Mumbai. Thank you, Amol, for letting me deliver a package. #MSME pic.twitter.com/VpoHUoJOIH</t>
         </is>
@@ -634,24 +674,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>779</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>5154</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>28473</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Lots of fun on stage with @iamsrk and Zoya Akhtar. pic.twitter.com/wdZ2tEsySX</t>
         </is>
@@ -665,24 +710,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>494</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>594</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>9075</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['#amazonsmbhav']</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Grabbing a quick selfie with @AmitAgarwal at India’s small business summit. Everyone squeeze in a little tighter! #amazonsmbhav pic.twitter.com/IvsciKDyiu</t>
         </is>
@@ -696,24 +746,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>919</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>3464</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>15933</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['#IndianCentury']</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Dynamism. Energy. Democracy. #IndianCentury pic.twitter.com/U6cKJO60Rz</t>
         </is>
@@ -727,24 +782,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>2611</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>8899</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>56882</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Just landed in India and spent a beautiful afternoon paying my respects to someone who truly changed the world. “Live as if you were to die tomorrow. Learn as if you were to live forever." - Mahatma Gandhi. pic.twitter.com/xDXAT9cBgf</t>
         </is>
@@ -758,24 +818,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>800</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>383</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3748</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Toured @LeeMontessori in Washington D.C. with a team from Day 1 Academies. It was great to meet these kids — they’re energetic and energizing. Lee is doing an amazing job unleashing their love of learning. pic.twitter.com/1eLIFcPeGD</t>
         </is>
@@ -789,24 +854,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>764</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1308</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>9539</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Picture perfect flight @BlueOrigin. And this vehicle has now flown to space &amp; back six times making this a new milestone. We carried 23 payloads today including thousands of postcards from kids all over the world for @ClubforFuture. Keep them coming kids &amp; we’ll keep flying them! pic.twitter.com/ZrjaknJh1t</t>
         </is>
@@ -820,24 +890,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1757</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>1116</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>8511</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Nice! Amazon ranked #1 best managed company. Definitely the result of strong teamwork from people who care deeply and passionately about customers, their fellow employees, and the environment. Huge thank you and kudos to all Amazonians. https://twitter.com/WSJ/status/1197971791932723200 …</t>
         </is>
@@ -851,24 +926,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>671</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>390</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>2444</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Excited to announce this year's Bezos Day One grants. Thank you to these 32 organizations in 23 states working to end homelessness. I recently spent time with the amazing team at Community of Hope in Washington, D.C. – one of last year’s grantees. http://www.bezosdayonefund.org pic.twitter.com/L0JeDUrjAY</t>
         </is>
@@ -882,24 +962,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>548</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>472</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>5313</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['#VeteransDay', '#AmazonWarriors']</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Congrats to David &amp; all the veterans graduating from the Amazon Apprenticeship program who are now in technical careers! They join the more than 21,000 veterans and military spouses working at Amazon. Huge thank you to them and all who’ve served. #VeteransDay #AmazonWarriors pic.twitter.com/Fx6q9KJEkw</t>
         </is>
@@ -913,24 +998,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>1303</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1379</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>7526</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['#gradatimferociter']</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>It’s time to go back to the Moon, this time to stay. @LockheedMartin @northropgrumman @DraperLab @blueorigin #gradatimferociter pic.twitter.com/SMEUdriJhh</t>
         </is>
@@ -944,24 +1034,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>947</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1284</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>10220</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['#AmazonFutureEngineer', '#NextGeneration']</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Dropped in on an #AmazonFutureEngineer class at Dunbar H.S. in D.C. today. We’re committed to bringing more resources to kids from underserved communities, and I’m proud to say we’re now funding computer science in more than 2,000 high schools across the U.S. #NextGeneration pic.twitter.com/HrFdIfrSDf</t>
         </is>
@@ -975,24 +1070,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>773</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>364</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>3573</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['#HurricaneDorian']</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Thank you to our customers who donated relief items for a second Amazon Air plane of humanitarian aid. Together, more than 400,000 Amazon-donated &amp; customer-donated items have been provided to those affected by #HurricaneDorian in the Bahamas &amp; the US. http://Amazon.com/disasterrelief pic.twitter.com/01jh0Y5bZr</t>
         </is>
@@ -1006,24 +1106,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>321</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>222</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>3150</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['#Emmy']</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>A record year of #Emmy wins for @PrimeVideo - fantastic work. Huge congrats to the winners and teams behind @Fleabag, @MaiselTV, and A Very English Scandal! pic.twitter.com/KS2NLZpY88</t>
         </is>
@@ -1037,24 +1142,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>229</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>202</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>2523</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['#Emmys']</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Good luck to @RachelBros, Phoebe Waller-Bridge, the @MaiselTV and @Fleabag teams, and all @PrimeVideo shows up for #Emmys tonight! pic.twitter.com/mTTj82hfeK</t>
         </is>
@@ -1066,26 +1176,31 @@
           <t>2019-09-20T22:47:55</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>141</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>211</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>847</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['#Ugly']</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>If you can’t compete with lower prices and better services, then secretly fund phony “grassroots” attack campaigns. #Ugly. https://www.wsj.com/articles/a-grassroots-campaign-to-take-down-amazon-is-funded-by-amazons-biggest-rivals-11568989838 …</t>
         </is>
@@ -1099,24 +1214,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>440</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>420</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>2619</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['#ClimatePledge', '#Paris10YearsEarly']</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Super excited about The Climate Pledge. Impossible to do this without @CFigueres. So grateful to you, Christiana. #ClimatePledge #Paris10YearsEarly pic.twitter.com/E9hkaLat5V</t>
         </is>
@@ -1130,24 +1250,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>397</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>565</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>4384</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['#HurricaneDorian']</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Yesterday the first Amazon Air plane loaded with relief items arrived in Nassau, Bahamas to help victims of #HurricaneDorian. The cargo weight was 72,728 lbs, with approx. 19,300 items on board. Huge thanks to the teams across Amazon who made this happen. http://amazon.com/disasterrelief pic.twitter.com/YFvC8Xl6mW</t>
         </is>
@@ -1161,24 +1286,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>407</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>295</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>3795</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['#AmazonCareerDay']</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Shout out to the new Amazonians who let me drop by their New Hire Orientation today. Incredible to welcome so many smart and passionate people from all over the world. I’m looking forward to our #AmazonCareerDay events tomorrow! pic.twitter.com/JM6CF1uoRW</t>
         </is>
@@ -1192,24 +1322,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>381</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>240</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2300</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Visited the amazing @Nia_House Montessori in Nashville with @mike_m_george. Learned a lot that’s going to help Day 1 Academies. By the way, “Nia” means “purpose” in Swahili. Very cool. pic.twitter.com/OhSQeD5jls</t>
         </is>
@@ -1223,24 +1358,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>497</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>655</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>5331</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['#Nashville', '#AmazonFutureEngineer']</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Today, we announced that we added 24 schools in #Nashville to our #AmazonFutureEngineer program. Loved celebrating the great news by building robots with students from Madison Middle School. pic.twitter.com/PAjMfl4pEw</t>
         </is>
@@ -1254,24 +1394,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>502</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>791</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>5931</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['#HurricaneDorian']</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>We're sending two Amazon Air planes packed with tens of thousands of Amazon-donated and customer-donated relief items to support those impacted by #HurricaneDorian in the Bahamas. Thanks to all the teams who are making this possible. http://amazon.com/disasterrelief pic.twitter.com/Y3DHueJaXf</t>
         </is>
@@ -1285,24 +1430,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>525</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>676</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>7961</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['#JackRyan']</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Season 2 streams November 1. Can’t wait. #JackRyan pic.twitter.com/THDtDjGIpQ</t>
         </is>
@@ -1316,24 +1466,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>763</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>8380</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>46545</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['#Chandrayaan2']</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Rooting for team India. Good luck, India! #Chandrayaan2 https://www.space.com/india-chandrayaan-2-moon-south-pole-landing-site.html …</t>
         </is>
@@ -1347,24 +1502,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>333</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>310</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>2265</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['#STEM']</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>.@BlueOrigin founded nonprofit @clubforfuture to inspire youth to pursue careers in #STEM + visualize life in space. We asked students to send postcards w/their dreams and we’d send the cards above the Kármán line to space and back. We’ve received thousands - they’re so inspiring pic.twitter.com/5fxHoD8DJm</t>
         </is>
@@ -1378,24 +1538,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>378</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>254</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>3449</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Had a great meeting with Mike George. We’re hard at work building Day 1 Academies, and Mike has been busy learning from the best in the field. Here are a few pictures from his listening tour – visiting the smart and kind early educators from schools across the country. pic.twitter.com/ty1ngS2JCA</t>
         </is>
@@ -1407,26 +1572,31 @@
           <t>2019-08-03T04:29:20</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>409</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>462</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>3497</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>BE-4 continues to rack up time on the test stand. Here’s a great shot of our full power engine test today #GradatimFerociter pic.twitter.com/93s6JcyBqR</t>
         </is>
@@ -1440,24 +1610,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>908</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>403</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>4915</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['#Pride']</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>#Pride pic.twitter.com/mYq5XuA9Ks</t>
         </is>
@@ -1471,24 +1646,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>693</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>434</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>4772</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['#JFKSpaceSummit', '#Apollo50']</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>So much fun with Caroline Kennedy yesterday at the #JFKSpaceSummit. Her father’s Rice speech still inspires. We choose to do these things “not because they are easy, but because they are hard.” #Apollo50 pic.twitter.com/ZmyBDxzK4V</t>
         </is>
@@ -1502,24 +1682,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>482</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>869</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>6268</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['#BE7']</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>First hotfire of our #BE7 lunar landing engine just yesterday at Marshall Space Flight Center. Data looks great and hardware is in perfect condition. Test went full planned duration – 35 seconds. Kudos to the whole @BlueOrigin team and grateful to @NASA_Marshall for all the help! pic.twitter.com/cTjjrngumY</t>
         </is>
@@ -1533,24 +1718,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>935</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>958</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>19554</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Happy Father’s Day. You’re there for me always, and I feel it. I love you, Dad. pic.twitter.com/o85JWRSTBn</t>
         </is>
@@ -1564,24 +1754,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>478</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>537</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>5378</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['#Grit']</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>My mom’s incredible story. Wow. So grateful. So proud. #Grit pic.twitter.com/msi2nHqikf</t>
         </is>
@@ -1595,24 +1790,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>501</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>1323</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>7596</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['#reMARS']</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Got a chance to scout some of the cool tech at the first #reMARS event. @HaptX @Rivian @hseas @wyssinstitute pic.twitter.com/bvG5afbn50</t>
         </is>
@@ -1626,24 +1826,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>316</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>571</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>3712</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['#AmazonFutureEngineer']</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Leo’s story is amazing and so is his mom. #AmazonFutureEngineer pic.twitter.com/QQPKg3GZ2T</t>
         </is>
@@ -1657,24 +1862,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>294</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>463</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>3278</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['#AmazonFutureEngineer']</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>.@AmazonreMARS is all about bringing the best and brightest together, so it’s fitting that I got to meet Leo — one of the first 100 recipients of the #AmazonFutureEngineer scholarship. I have no doubt Leo is going to be an inventor of tomorrow. pic.twitter.com/vhQzZzA4kl</t>
         </is>
@@ -1688,24 +1898,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1456</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>1029</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>8634</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>MacKenzie is going to be amazing and thoughtful and effective at philanthropy, and I’m proud of her. Her letter is so beautiful. Go get ‘em MacKenzie. https://givingpledge.org/Pledger.aspx?id=393 …</t>
         </is>
@@ -1719,24 +1934,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>282</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>335</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>3667</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['#MemorialDay']</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Grateful on this #MemorialDay to the fallen servicemen and women — and their families — for the ultimate sacrifice they made in defending and supporting our nation. The flag in the picture is on display on the factory wall at @BlueOrigin to remind us every day. pic.twitter.com/6Qir3sk3mt</t>
         </is>
@@ -1750,24 +1970,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>364</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>256</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>2177</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['#Amazon']</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">Great annual shareholder meeting today. #Amazon https://youtu.be/vwsO238zoEQ </t>
         </is>
@@ -1781,24 +2006,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>661</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>1882</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>7817</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>My dad’s journey to the U.S. shows how people come together to help each other. We got a chance to celebrate him last night for the opening of the Statue of Liberty’s new museum. This is his story. http://bit.ly/2HsArU6 pic.twitter.com/E4C1KPho2u</t>
         </is>
@@ -1812,24 +2042,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>729</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>2325</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>16432</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['#StatueofLibertyMuseum']</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>At the Statue of Liberty, where my dad’s being honored with a Liberty Star as part of the new museum’s opening. When he came here from Cuba at 16, not only was he all alone, but he only spoke Spanish. His grit, determination, and optimism are inspiring. #StatueofLibertyMuseum pic.twitter.com/DFhR3Dbf7p</t>
         </is>
@@ -1843,24 +2078,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>1075</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>2077</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>12345</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['#amazon', '#prime']</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>We’re investing $1.5 billion in our new air hub to get you your packages faster. Three million square feet, and it’s going to create 2,000 jobs. And if you’re guessing that driving a front loader was fun, you’re right! #amazon #prime pic.twitter.com/Cud4orKrC4</t>
         </is>
@@ -1874,24 +2114,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>505</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>681</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>11824</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>I’m lucky enough to call her my mom. She’s kind, patient, supportive, and has always encouraged me to stay curious. Happy Mother’s Day, Mom! pic.twitter.com/n1UZV3muZe</t>
         </is>
@@ -1905,24 +2150,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>382</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>845</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>4944</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['#BlueMoon']</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Blue Origin is building the infrastructure needed to unleash the next generation of dreamers. I met these young people today, and the future is in great hands. #BlueMoon @clubforfuture pic.twitter.com/F2zPM5PngM</t>
         </is>
@@ -1934,26 +2184,31 @@
           <t>2019-05-10T00:38:26</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>312</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>1777</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>6423</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['#bluemoon']</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Today, our founder shared our vision to go to space to benefit Earth. We must return to the Moon—this time to stay. We’re ready to support @NASA in getting there by 2024 with #bluemoon. pic.twitter.com/UqQyMa9Zcn</t>
         </is>
@@ -1967,24 +2222,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>289</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>424</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>3587</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Congrats to the whole @blueorigin team! https://twitter.com/blueorigin/status/1124080713937182724 …</t>
         </is>
@@ -1998,24 +2258,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>518</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>228</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>3760</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Been an honor &amp; pleasure having Tom Alberg on Amazon’s Board. Tom joined in 1996 and has been with us ever since - over 22 years. I’ll miss his sound judgment, deep well of business &amp; life experience, and his quick wit. He's a smart business person and even better human. Thx Tom!</t>
         </is>
@@ -2029,24 +2294,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>1379</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>1386</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>11700</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>pic.twitter.com/oFGWPkK3dB</t>
         </is>
@@ -2058,26 +2328,31 @@
           <t>2019-04-04T19:10:09</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>7030</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>4409</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>29284</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>pic.twitter.com/OJWn3OOLS6</t>
         </is>
@@ -2091,24 +2366,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>747</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>1156</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>7569</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['#ThinkBig', '#MARS2019']</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Thank you @FestoAG, but bigger please…. I want to get on! #ThinkBig #MARS2019 pic.twitter.com/uXqvkf623B</t>
         </is>
@@ -2122,24 +2402,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>12260</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>26124</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>91713</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>I’ve written a post about developments with the National Enquirer and its parent company, AMI. You can find it here: https://medium.com/@jeffreypbezos/no-thank-you-mr-pecker-146e3922310f …</t>
         </is>
@@ -2153,24 +2438,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>2404</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>6614</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>30026</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['#democracydiesindarkness', '#SuperBowlAd']</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Grateful for the journalists at the @washingtonpost and around the world who do the work, no matter the risk or dangers they face.
 #democracydiesindarkness #SuperBowlAd https://wapo.st/democracydiesindarkness … pic.twitter.com/37PLrNLJe0</t>
@@ -2185,24 +2475,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>5989</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>6558</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>34708</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>pic.twitter.com/Gb10BDb0x0</t>
         </is>
@@ -2216,24 +2511,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>665</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>717</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>6971</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>I have outstanding news to ring in 2019. Former Alexa VP &amp; long-time Amazonian Mike George has agreed to lead the Day 1 Academies Fund. Mike is a true builder who knows how to start from scratch, and he’ll bring tremendous energy, grit, and passion to the job. Thank you, Mike! pic.twitter.com/K01N1NZ8ag</t>
         </is>
@@ -2247,24 +2547,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>1070</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>1140</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>7869</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Excited to announce the first annual grants from the Bezos Day 1 Families Fund. $97.5 million to 24 organizations doing needle-moving work on family homelessness. Congrats to the recipients – we know you’ll spend the money wisely and with heart. https://www.bezosdayonefund.org/day1familiesfund … pic.twitter.com/MMCil3l2cw</t>
         </is>
@@ -2278,24 +2583,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>773</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>1284</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>9424</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['#VeteransDay', '#AmazonWarriors']</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Had the privilege today of unveiling our newest Amazon Air 767 - "Valor" - named in honor of the thousands of Amazonian veterans and military spouses delivering for our customers every day. #VeteransDay #AmazonWarriors pic.twitter.com/bKHDQgb1TN</t>
         </is>
@@ -2309,24 +2619,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>934</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>2295</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>12411</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Yep, that’s me. I was lucky to be exposed to tech and coding at a young age. Inspired a lifelong love of invention. I hope the new Amazon Future Engineer program does the same for some kids today. https://www.amazonfutureengineer.com/ pic.twitter.com/RPZEiIHSap</t>
         </is>
@@ -2340,24 +2655,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>454</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>438</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>2900</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['#diverse', '#inclusive', '#HKAA19']</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Amazon just won The American Foundation for the Blind’s Helen Keller award! Huge kudos to the whole team on working so hard to make our products accessible to the vision impaired! @afb1921 https://twitter.com/AFB1921/status/1054734453753499648 …</t>
         </is>
@@ -2371,24 +2691,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>349</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>1622</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>11333</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Very sad to hear of Paul Allen’s passing. His passion for invention and pushing forward inspired so many. He was relentless to the end. My heart goes out to Paul’s family and friends.</t>
         </is>
@@ -2402,24 +2727,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>442</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>739</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>4538</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['#NewGlenn', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Thank you to the @usairforce for your confidence in the @BlueOrigin team and our #NewGlenn rocket. We are proud to serve the national security space community and are committed to providing safe, reliable access to space for the nation. #GradatimFerociter pic.twitter.com/AeO3xXhnUi</t>
         </is>
@@ -2433,24 +2763,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>1555</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>3679</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>20271</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Thank you @SenSanders. We’re excited about this, and also hope others will join in. https://twitter.com/SenSanders/status/1047136187964694530 …</t>
         </is>
@@ -2464,24 +2799,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>260</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>496</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>2835</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['#21stCenturyEngine', '#AllAmericanEngine', '#GradatimFerociter', '#VulcanCentaur']</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Big win for @BlueOrigin today! And a big thank you to @ulalaunch for choosing our BE-4 engine. Excited to be a part of Vulcan’s mission to space. #21stCenturyEngine #AllAmericanEngine #GradatimFerociter https://twitter.com/ulalaunch/status/1045408598392803330 …</t>
         </is>
@@ -2495,24 +2835,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>298</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>244</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>2335</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['#Emmys']</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Incredible work from the whole @MaiselTV team for 8 #Emmys wins, including Outstanding Comedy Series. Woohoo! pic.twitter.com/mfAwDkVX6s</t>
         </is>
@@ -2526,24 +2871,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>2504</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>6740</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>26003</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>pic.twitter.com/2GlgjztK1u</t>
         </is>
@@ -2555,26 +2905,31 @@
           <t>2018-09-12T22:14:10</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>168</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>175</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>816</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Teams working to get ready for Florence forward deploying relief supplies in our FCs closer to expected areas of impact, working with the @RedCross and others. Trucks, planes, and people ready to help if needed.  Stay safe everyone. Learn more here https://blog.aboutamazon.com/working-at-amazon/delivering-relief-to-communities-impacted-by-natural-disasters … pic.twitter.com/bZmubEtaU2</t>
         </is>
@@ -2588,24 +2943,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>1073</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>419</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>2703</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['#nevergetsold', '#gradatimferociter', '#nevergetsold']</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Super proud of the entire Blue Team who came together and made it happen #nevergetsold #gradatimferociter https://twitter.com/blueorigin/status/1019741670231834624 …</t>
         </is>
@@ -2619,24 +2979,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>345</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>264</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>2152</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['#launchlandrepeat']</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Appreciate the support, Mr. Vice President. I’m thrilled to report from West Texas that the team nailed it today #launchlandrepeat https://twitter.com/VP/status/1019591758085271552 …</t>
         </is>
@@ -2650,24 +3015,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>422</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>550</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>4116</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Crew Capsule looks great even after it was pushed hard by the escape test. Astronauts would have had an exhilarating ride and safe landing. Great engineering and the lucky boots worked again @BlueOrigin #GradatimFerociter pic.twitter.com/ireJ3rWEvs</t>
         </is>
@@ -2681,24 +3051,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>537</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>383</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>3725</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['#ChooseToInclude']</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Wishing @SpecialOlympics tennis competitor (and Amazonian!) Leonard Flowers luck in the @2018USAGames this week! Great event and we’re proud to be a presenting sponsor. #ChooseToInclude pic.twitter.com/kx6igcmb6e</t>
         </is>
@@ -2712,24 +3087,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>980</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>3025</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>26473</v>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>My dad came here from Cuba all by himself without speaking English when he was 16 years old, and has been kicking ass ever since. Thank you for all the love and heart, Dad! pic.twitter.com/nuavG0yEtM</t>
         </is>
@@ -2743,24 +3123,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>2062</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>1428</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>11386</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>pic.twitter.com/phDTXHElBp</t>
         </is>
@@ -2774,24 +3159,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>422</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>626</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>5644</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['#MemorialDay', '#HireVets', '#HireMilitarySpouses']</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>I’m enjoying this day with my kids but also remembering. Remembering the many sons and daughters who have given up their lives for us and for our sons and daughters. #MemorialDay #HireVets #HireMilitarySpouses pic.twitter.com/mdSr0Ylapx</t>
         </is>
@@ -2805,24 +3195,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>285</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>372</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>2942</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Tom Wolfe was an amazing journalist and author. Thank you for showing us all what it took to have “The Right Stuff”. pic.twitter.com/ObMeU4S92S</t>
         </is>
@@ -2836,24 +3231,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>385</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>550</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>8322</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>You shaped us, you protected us, you let us fall, you picked us up, and you LOVED us, always and unconditionally. Thank you for everything. I love you, Mom. pic.twitter.com/Z8YGMO55C9</t>
         </is>
@@ -2867,24 +3267,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>1429</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>14069</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>41311</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['#Emerson']</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Love this quote. It’s been on my fridge for years, and I see it every time I open the door. #Emerson pic.twitter.com/kN8HjM4bOI</t>
         </is>
@@ -2898,24 +3303,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>483</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>1240</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>7380</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t xml:space="preserve"> @ConanOBrien @BlueOrigin pic.twitter.com/x3BiCpaLQA</t>
         </is>
@@ -2929,24 +3339,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>391</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>2033</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>7511</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Highlights from today’s mission. Don’t miss the Nerf ball doing a few backflips in zero gravity. #GradatimFerociter @BlueOrigin pic.twitter.com/YxlJRt0MXc</t>
         </is>
@@ -2960,24 +3375,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>231</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>460</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>3822</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>The lucky boots worked again. Huge kudos and thanks to the entire @BlueOrigin team. #GradatimFerociter pic.twitter.com/P9cUqRNbYv</t>
         </is>
@@ -2991,24 +3411,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>184</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>446</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>3232</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Apogee of 351,000 feet (66 miles, 107 kilometers), and that’s the altitude we’ve been targeting for operations. One step closer. #GradatimFerociter @BlueOrigin</t>
         </is>
@@ -3022,24 +3447,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>301</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>1208</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>5717</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Launch preparations are underway for New Shepard’s 8th test flight, as we continue our progress toward human spaceflight. Currently targeting Sunday 4/29 with launch window opening up at 830am CDT. Livestream info to come. @BlueOrigin #GradatimFerociter pic.twitter.com/zAYpAGWB8C</t>
         </is>
@@ -3053,24 +3483,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>590</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>1300</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>8780</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['#NoPlanB', '#GradatimFerociter', '#EarthDay']</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Dog sledding above the Arctic Circle in Norway. Jim Lovell says it’s not that you go to heaven when you die, but “you go to heaven when you’re born.” Earth is the best planet in our solar system. We go to space to save the Earth. @BlueOrigin #NoPlanB #GradatimFerociter #EarthDay pic.twitter.com/q0Y9A4KSLm</t>
         </is>
@@ -3084,24 +3519,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>178</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>305</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>2491</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Honored to speak at @TheBushCenter Forum on Leadership tonight with Ken Hersh. The spirit of former First Lady Barbara Bush was very much felt at the event. pic.twitter.com/E4TJR9KKs9</t>
         </is>
@@ -3115,24 +3555,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>352</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>963</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>4846</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['#FireTVEdition']</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>At @BestBuy catching up with CEO Hubert Joly and announcing our collaboration on the next generation of smart TVs. Couldn’t ask for a better partner, and the product is killer. Full Alexa integration: “Alexa, watch ABC” or “Alexa, watch Westworld.” #FireTVEdition pic.twitter.com/Dsq8VBOSA7</t>
         </is>
@@ -3146,24 +3591,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>557</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>3933</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>16308</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['#Pulitzer', '#DemocracyDiesInDarkness']</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Great reporting requires patience, grit and a willingness to follow a story wherever it leads, whether Alabama or Moscow. Proud of @washingtonpost #Pulitzer winners! And big congrats to the @nytimes, as well! #DemocracyDiesInDarkness https://www.washingtonpost.com/news/national/wp/2018/04/16/feature/washington-post-wins-pulitzer-prizes-for-roy-moore-investigation-russia-reporting/ …</t>
         </is>
@@ -3177,24 +3627,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>282</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>420</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>4567</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>I love Dwayne Johnson @TheRock. Still working on my smolder https://youtu.be/gJN7-jC7x8w?t=173 … pic.twitter.com/WyckQV6rrY</t>
         </is>
@@ -3208,24 +3663,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>580</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>557</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>8522</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Very comfortable on my kids’ giant panda doing email and putting final touches on this year’s annual shareholder letter. About to take the kids to see Rampage... pic.twitter.com/OrmMpV4VGj</t>
         </is>
@@ -3239,24 +3699,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>363</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>593</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>5991</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['#funfriends']</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>I made pancakes on this rainy Seattle morning for @ciara and @DangeRussWilson. These guys are as fun as they are talented. Inspiring too. And Russ and I ate our weight in pancakes! #funfriends pic.twitter.com/MWST7oXbVs</t>
         </is>
@@ -3270,24 +3735,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>471</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>2212</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>17158</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Horrible and truly tragic day for YouTube and Google. We are wishing all our very best for the injured and all those affected.</t>
         </is>
@@ -3301,24 +3771,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>2103</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>7280</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>29128</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['#MARS2018', '#BostonDynamics']</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Taking my new dog for a walk at the #MARS2018 conference. #BostonDynamics pic.twitter.com/vE6CXrvV3o</t>
         </is>
@@ -3332,24 +3807,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>157</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>167</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1052</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Thank you to the @NatReconOfc for having me over to speak. You don’t want to even imagine the world without these professionals doing the job they do. https://twitter.com/NatReconOfc/status/974057709862612992 …</t>
         </is>
@@ -3363,24 +3843,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>324</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>1099</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>4985</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>New test video of Blue’s 550K lbf thrust, ox-rich staged combustion, LNG-fueled BE-4 engine. The test is a mixture ratio sweep at 65% power level and 114 seconds in duration. Methane (or LNG) has proved to be an outstanding fuel choice. @BlueOrigin #GradatimFerociter pic.twitter.com/zWV0jWXIvx</t>
         </is>
@@ -3394,24 +3879,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>652</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>923</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>9039</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['#FinalFrontier', '#GoBoldly']</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Kirk or Picard? Picard! #FinalFrontier #GoBoldly pic.twitter.com/mEohTVuKIs</t>
         </is>
@@ -3425,24 +3915,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>1214</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>1445</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>5266</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Happy to announce that Amazon Studios is adapting Iain M. Banks’ amazing Culture series — a huge personal favorite — as a TV series. Can’t wait! http://phx.corporate-ir.net/phoenix.zhtml?c=176060&amp;p=irol-newsArticle&amp;ID=2333693 … pic.twitter.com/NhCGUyRt2L</t>
         </is>
@@ -3456,24 +3951,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>718</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>3704</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>10615</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['#10000YearClock']</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Installation has begun—500 ft tall, all mechanical, powered by day/night thermal cycles, synchronized at solar noon, a symbol for long-term thinking—the #10000YearClock is coming together thx to the genius of Danny Hillis, Zander Rose &amp; the whole Clock team! Enjoy the video. pic.twitter.com/FYIyaUIbdJ</t>
         </is>
@@ -3487,24 +3987,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>499</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>2676</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>25572</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Best of luck @SpaceX with the Falcon Heavy launch tomorrow – hoping for a beautiful, nominal flight! @BlueOrigin #GradatimFerociter</t>
         </is>
@@ -3518,24 +4023,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>761</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>3063</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>15208</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['#NoPlanB', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>The stunning Perito Moreno Glacier in Patagonia. We’ve sent robotic probes to every planet in this solar system. Earth is BY FAR the best one. We go to space to save the Earth. @BlueOrigin #NoPlanB #GradatimFerociter pic.twitter.com/8esV18orcJ</t>
         </is>
@@ -3549,24 +4059,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>632</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>315</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>2852</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['#GoldenGlobes']</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Wishing best of luck tonight to THE MARVELOUS MRS MAISEL, Rachel Brosnahan, Kevin Bacon, and to the whole cast and crew of THE POST too! #GoldenGlobes pic.twitter.com/UIJriZzmN6</t>
         </is>
@@ -3580,24 +4095,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>437</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>780</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>3759</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Turns out our Amazon fulfillment center associates in Madrid can dance… And one got a big surprise at the end! Love it! pic.twitter.com/7MufxruSXe</t>
         </is>
@@ -3611,24 +4131,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>307</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>654</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>2947</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['#Blue2D2']</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>First use of our landing pad bot #Blue2D2. @blueorigin pic.twitter.com/Ht2P7yVwEs</t>
         </is>
@@ -3642,24 +4167,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>240</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>756</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>2420</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['#NewShepard']</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Full video of Mannequin Skywalker’s ride to space. Unlike him, you’ll be able to get out of your seat during the zero gee part of the flight. And ignore the pinging sound – it’s just from one of the experiments on this flight. #NewShepard @blueorigin https://youtu.be/6ZJghIk7_VA pic.twitter.com/qGQC1vfW7D</t>
         </is>
@@ -3673,24 +4203,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>400</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>1933</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>6153</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['#NewShepard']</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>#NewShepard had a successful first flight of Crew Capsule 2.0 today. Complete with windows and our instrumented test dummy. He had a great ride. @BlueOrigin pic.twitter.com/PZHXWXjuw9</t>
         </is>
@@ -3704,24 +4239,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>317</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>616</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>2493</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['#reInvent']</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Of all the news coming out of AWS #reInvent this week, I hope you didn’t miss this one. Set a Guinness World Record for largest chicken wing eating competition! Nice! pic.twitter.com/uSfmLOKTU0</t>
         </is>
@@ -3735,24 +4275,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>521</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>2051</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>9705</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Ten years ago today, we launched the first-ever Kindle. Happy 10th birthday @AmazonKindle and thank you to all the Kindle readers and authors! pic.twitter.com/qelfniBSK1</t>
         </is>
@@ -3766,24 +4311,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>651</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>3518</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>8797</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Amazon Prime heads to Middle Earth. http://phx.corporate-ir.net/phoenix.zhtml?c=176060&amp;p=irol-newsArticle&amp;ID=2316587 … pic.twitter.com/YVciEX3u2t</t>
         </is>
@@ -3797,24 +4347,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>113</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>116</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1028</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Thank you and your boys for your service, Casey! https://twitter.com/ThigpenCasey/status/928632955852832768 …</t>
         </is>
@@ -3828,24 +4383,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>339</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>1046</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>5743</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['#VeteransDay']</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Thank you to the 17,500 veterans and military spouses now working at Amazon. We set a goal last year to hire 25,000 of these leaders by 2021, and are on track to hire even more. #VeteransDay pic.twitter.com/1tIiSZrRtQ</t>
         </is>
@@ -3859,24 +4419,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>204</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>411</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1794</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Congrats to the @BestBuy team on their new Alexa skill. Customers can now find and shop Best Buy deals on Alexa. Nice! pic.twitter.com/wWuvIkvgD1</t>
         </is>
@@ -3890,24 +4455,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>288</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>526</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>2938</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['#DMNA17']</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>And the winner for best news website is … @WashingtonPost. And more. Big congrats to the whole team! #DMNA17 pic.twitter.com/BtridtXjeM</t>
         </is>
@@ -3921,24 +4491,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>172</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>759</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>3032</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>First hotfire of our BE-4 engine is a success. Huge kudos to the whole @BlueOrigin team for this important step! #GradatimFerociter pic.twitter.com/0gk6k6WuPx</t>
         </is>
@@ -3952,24 +4527,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>836</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>4776</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>17605</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['#RenewableEnergy']</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Fun day christening Amazon’s latest wind farm. #RenewableEnergy pic.twitter.com/cTxeXdsFop</t>
         </is>
@@ -3983,24 +4563,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>323</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>667</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>3329</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['#NobelPrize']</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Long my favorite novel. Teaches pain of regret so well you will think you lived it. Congrats, Mr. Ishiguro, so earned! #NobelPrize pic.twitter.com/VBOyLYlIIi</t>
         </is>
@@ -4014,24 +4599,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>571</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>3696</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>16789</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Amazon plane packed with donation of critical supplies landed earlier today in San Juan. Thank you to all the Amazonians who made it happen. pic.twitter.com/w3ksl0SP25</t>
         </is>
@@ -4045,24 +4635,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>128</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>432</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>2930</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Thoughts with all those affected in Las Vegas. So much gratitude to all the police &amp; good Samaritans who put their lives on the line to help</t>
         </is>
@@ -4076,24 +4671,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>154</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>587</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>3168</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['#BeatPediatricCancer', '#GoGold']</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Future engineer, 9-year-old Ryan, signs Amazon gold robot he helped build at another "30 Days, 30 Smiles" event #BeatPediatricCancer #GoGold pic.twitter.com/EEpa50nNCI</t>
         </is>
@@ -4107,24 +4707,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>237</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>466</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>2465</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['#BeatPediatricCancer']</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>.@Amazon supporting “30 Days, 30 Smiles” with @Accorg. Today, a surprise visit to @BlueOrigin. #BeatPediatricCancer pic.twitter.com/RErtOuuJDm</t>
         </is>
@@ -4138,24 +4743,29 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>342</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>1886</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>4202</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Alexa has made a new friend https://www.nytimes.com/2017/08/30/technology/amazon-alexa-microsoft-cortana.html …</t>
         </is>
@@ -4169,24 +4779,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>8593</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>262</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>2049</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>pic.twitter.com/LvRG16ZhbF</t>
         </is>
@@ -4200,24 +4815,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>759</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>1272</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>5526</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['#SecDef']</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>A pleasure to host #SecDef James Mattis at Amazon HQ in Seattle today pic.twitter.com/JnQZoSOnFN</t>
         </is>
@@ -4231,24 +4851,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>151</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>239</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>2209</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Couldn’t happen to a nicer guy. Congratulations @jeffreytambor! pic.twitter.com/543RCTusqX</t>
         </is>
@@ -4262,24 +4887,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>119</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>89</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>603</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['#MissHomeStreet', '#Seafair']</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Awesome! Good luck this weekend @JimmyShane1! https://twitter.com/JimmyShane1/status/893262865817194500 …</t>
         </is>
@@ -4293,24 +4923,29 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>228</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>796</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>3592</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['#BlueOrigin', '#Oshkosh']</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Incredible turnout to see the first booster ever to fly into space and land vertically upon the Earth. #BlueOrigin #Oshkosh pic.twitter.com/fh9KqVBCUo</t>
         </is>
@@ -4324,24 +4959,29 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>283</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>169</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>1281</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Mike Collins cracking us all up last night. pic.twitter.com/bnpHp0ZCK4</t>
         </is>
@@ -4355,24 +4995,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>103</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>284</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>1792</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Huge thanks from the whole @BlueOrigin team, Buzz https://twitter.com/TheRealBuzz/status/886778900193431552 …</t>
         </is>
@@ -4386,24 +5031,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>186</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>543</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>2103</v>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['#OSH17']</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Going to Oshkosh? Come sit inside @BlueOrigin’s crew capsule and enjoy a simulated ride to space @EAA #OSH17 https://www.eaa.org/en/airventure/eaa-airventure-news-and-multimedia/eaa-airventure-news/eaa-airventure-oshkosh/07-10-2017-blue-origin-to-bring-reusable-rocket-and-crew-capsule-to-airventure-2017 … pic.twitter.com/EjUuY5bdw7</t>
         </is>
@@ -4417,24 +5067,29 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>133</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>241</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>1062</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['#CustomerObsession']</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>This is a gigantic compliment to our teams. Best of luck Haggler in your continuing adventures. #CustomerObsession https://www.nytimes.com/2017/06/22/insider/the-haggler-retires-but-reasons-to-be-an-irate-customer-never-end.html …</t>
         </is>
@@ -4448,24 +5103,29 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>319</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>3565</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>8334</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Terrific meeting with @narendramodi. Always impressed, energized by optimism and invention in India. Excited to keep investing and growing. https://twitter.com/PMOIndia/status/879008919816855552 …</t>
         </is>
@@ -4479,24 +5139,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>235</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>179</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>1132</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['#NewShepard']</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Amazing to share this moment with the @BlueOrigin team and my family. https://twitter.com/blueorigin/status/876803940330766336 …</t>
         </is>
@@ -4510,24 +5175,29 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>211</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>168</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>3051</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['#FathersDay']</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>And here’s me and my dad. I’m a very lucky son. I love you, Dad. #FathersDay pic.twitter.com/mEBsN88DLG</t>
         </is>
@@ -4541,24 +5211,29 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>123</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>209</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>2761</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['#FathersDay']</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Flipping pancakes, Lego Saturn V, Wonder Woman matinee. Love being a dad. #FathersDay pic.twitter.com/L9Q7zW1p0A</t>
         </is>
@@ -4572,24 +5247,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>46399</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>9659</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>21934</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Request for ideas… pic.twitter.com/j6D68mhseL</t>
         </is>
@@ -4603,24 +5283,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>263</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>753</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>2995</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['#solar']</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Rooftop #solar panels at our 1 million-square-foot fulfillment center in Baltimore now live. 50+ solar FCs will come online by 2020. pic.twitter.com/eUpoxZ0eTt</t>
         </is>
@@ -4634,24 +5319,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>71</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>209</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>921</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Congrats to Jeff on his long-term leadership. John, you have size 20 shoes to fill! GE remains an American gem. https://www.washingtonpost.com/business/ge-ceo-immelt-stepping-down-flannery-to-take-over-role/2017/06/12/13d2e08e-4f63-11e7-b74e-0d2785d3083d_story.html …</t>
         </is>
@@ -4665,24 +5355,29 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>123</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>172</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>997</v>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['#TMOFAPOLLO', '#jeffbezos']</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Super fun morning talking rockets with a very cool group of students. Great questions. Thx to all the students and to @museumofflight! https://twitter.com/museumofflight/status/865966078425350144 …</t>
         </is>
@@ -4696,24 +5391,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>280</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>444</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>5029</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>I won the lottery with my mom. Thanks for literally everything, Mom. pic.twitter.com/gEuVgxotdw</t>
         </is>
@@ -4727,24 +5427,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>111</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>596</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>2159</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['#TheSpheres']</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>First plant in the ground at #TheSpheres, 39,999 to go. Public tours start 2018. pic.twitter.com/6Jgo4cLb7o</t>
         </is>
@@ -4758,24 +5463,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>112</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>120</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>810</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Thanks @TheRealBuzz! That cute little guy is the future! https://twitter.com/TheRealBuzz/status/846025808745545730 …</t>
         </is>
@@ -4789,24 +5499,29 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>190</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>374</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>2223</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>My parents rock. http://www.geekwire.com/2017/bezos-family-makes-record-breaking-35m-donation-fred-hutch-fund-cancer-research/ …</t>
         </is>
@@ -4820,24 +5535,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>89</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>335</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>1346</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Impossible to express how personally meaningful this is. A dream. Huge kudos to @BlueOrigin team that worked so hard https://naa.aero/userfiles/files/documents/Press%20Releases/Collier%20Trophy%202016.pdf … https://twitter.com/NatlAero/status/847178033425498112 …</t>
         </is>
@@ -4851,24 +5571,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>412</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>2234</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>5405</v>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['#MARS2017']</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>I just got to pilot an awesome (and huge) robot thanks to Hankook Mirae Technology. Nice! #MARS2017 pic.twitter.com/MvN6ghEYFi</t>
         </is>
@@ -4882,24 +5607,29 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>61</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>141</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>473</v>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t xml:space="preserve">Thanks LA Times for choosing WaPo's Arc Publishing for your digital platform, and kudos to tech team at The Post! http://wapo.st/latimes </t>
         </is>
@@ -4913,24 +5643,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>69</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>249</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>1247</v>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>OK. Definitely want to buy a bottle of this… https://twitter.com/seattletimes/status/838993874701987841 …</t>
         </is>
@@ -4944,24 +5679,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>59</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>259</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>897</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['#NewGlenn', '#OneWeb']</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Adding to the #NewGlenn launch manifest. Agreement with #OneWeb for five launches initially. Happy to work with you @Greg_Wyler pic.twitter.com/4m5LiTzl9R</t>
         </is>
@@ -4975,24 +5715,29 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>70</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>315</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>1094</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['#NewGlenn']</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>Excited to announce we have signed our 1st #NewGlenn customer. Welcome to the launch manifest @Eutelsat_SA pic.twitter.com/fTeKKneYnJ</t>
         </is>
@@ -5006,24 +5751,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>95</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>621</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>1972</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Here’s one more shot of BE-4 in its transport cradle. pic.twitter.com/T2HdZ3UtQZ</t>
         </is>
@@ -5037,24 +5787,29 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>73</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>584</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>1644</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>1st BE-4 engine fully assembled. 2nd and 3rd following close behind. #GradatimFerociter pic.twitter.com/duE4Tnzvkx</t>
         </is>
@@ -5066,26 +5821,31 @@
           <t>2017-03-04T23:19:28</t>
         </is>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>30</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>52</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>283</v>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Kudos Palm Coast STEM--new record for tallest self-supporting toy tower. 5k pieces, 14’1” tall using exclusive toy from Amazon seller Qubits pic.twitter.com/argY3eHQay</t>
         </is>
@@ -5097,26 +5857,31 @@
           <t>2017-03-01T16:55:27</t>
         </is>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>37</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>168</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>582</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t xml:space="preserve">Very cool. 7-year-old boy starts own food pantry to help hungry kids http://amzn.to/2mF7kl1 </t>
         </is>
@@ -5130,24 +5895,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>71</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>254</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>1101</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['#ManchesterByTheSea', '#Oscars']</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>Congrats to Casey Affleck on his Best Actor win. So earned. #ManchesterByTheSea #Oscars @AmazonStudios @MBTSMovie</t>
         </is>
@@ -5161,24 +5931,29 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>24</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>145</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>664</v>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['#Oscars']</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>Bravo to Kenny Lonergan on his well-deserved #Oscars win for Best Original Screenplay @AmazonStudios @MBTSMovie</t>
         </is>
@@ -5192,24 +5967,29 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>61</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>603</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>2020</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['#TheSalesman', '#Oscars']</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>#TheSalesman takes home the Oscar for Best Foreign Language Film. Well done Asghar Farhadi and team @AmazonStudios #Oscars</t>
         </is>
@@ -5223,24 +6003,29 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="D157" t="n">
         <v>69</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>205</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>821</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>Excited to share our urban campus with this terrific organization @FareStart https://twitter.com/seatimesbiz/status/832266754835505152 …</t>
         </is>
@@ -5254,24 +6039,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>51</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>109</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>689</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>Love this story http://www.wave3.com/story/34498260/4-couples-find-love-working-side-by-side-at-amazon … of not 1, but 4 couples, who met @ Amazon FC in KY. Love is in the air… Happy Valentine's day! pic.twitter.com/rn3ctg98Qu</t>
         </is>
@@ -5285,24 +6075,29 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>217</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>450</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>1825</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>And on the NYPost article, if anybody knows how to get 20% margins in groceries, call me! :)</t>
         </is>
@@ -5316,24 +6111,29 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="D160" t="n">
         <v>98</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>455</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>1028</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>.@nypost, whoever your anonymous sources are on this story http://nypost.com/2017/02/05/inside-amazons-robot-run-supermarket-that-needs-just-3-human-workers/ … – they’ve mixed up their meds!</t>
         </is>
@@ -5347,24 +6147,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="D161" t="n">
         <v>93</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>419</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>1899</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Buzz Aldrin dropped by Blue Origin HQ to say hi to the team yesterday. Thanks @TheRealBuzz! pic.twitter.com/JiCdI77ij6</t>
         </is>
@@ -5376,26 +6181,31 @@
           <t>2017-01-30T17:42:26</t>
         </is>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>45</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>132</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>428</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Asghar Farhadi, @AmazonStudios understands and supports your decision not to attend the Oscars.</t>
         </is>
@@ -5409,24 +6219,29 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>189</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>418</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>1024</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>I agree we need a superhighway in space. http://www.salon.com/2017/01/05/the-case-for-transportation-above-the-clouds-nasa-should-build-a-superhighway-in-space_partner/ …</t>
         </is>
@@ -5440,24 +6255,29 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>383</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>6224</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>7420</v>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['#AmazonPrimeAir']</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>First-ever #AmazonPrimeAir customer delivery is in the books. 13 min—click to delivery. Check out the video: http://amzn.to/primeair pic.twitter.com/5HGsmHvPlE</t>
         </is>
@@ -5471,24 +6291,29 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>53</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>413</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>1351</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>The Spheres’ first snow… thanks @mAColors for the great pic pic.twitter.com/WnOtTAixjU</t>
         </is>
@@ -5502,24 +6327,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>42</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>400</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>1618</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>Thank you, John Glenn. Godspeed.</t>
         </is>
@@ -5533,24 +6363,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>30</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>195</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>645</v>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Late Late Show’s @JKCorden on Amazon Go – very funny! https://www.youtube.com/watch?v=hkMwfp8_dcs …</t>
         </is>
@@ -5564,24 +6399,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="D168" t="n">
         <v>37</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>172</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>684</v>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>So proud of my brother http://bit.ly/2gZMhKv , and here’s his TED talk http://bit.ly/ObSDU6 .</t>
         </is>
@@ -5595,24 +6435,29 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>414</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>1790</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>3045</v>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t xml:space="preserve">Love this TV commercial for Amazon Prime. Very proud of our ad team. https://youtu.be/Ouu6LGGIWsc </t>
         </is>
@@ -5626,24 +6471,29 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>329</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>3047</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>7860</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['#TheGrandTour']</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>Long wait is over… Clarkson, Hammond, May are back… #TheGrandTour premieres tonight in UK, US, DE, JP. And globally in Dec. pic.twitter.com/dfQjGGuDFW</t>
         </is>
@@ -5657,24 +6507,29 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="D171" t="n">
         <v>1263</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>1915</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>5217</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>Congratulations to @realDonaldTrump. I for one give him my most open mind and wish him great success in his service to the country.</t>
         </is>
@@ -5688,24 +6543,29 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>52</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>157</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>658</v>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>http://www.huffingtonpost.com/entry/amazon-prime-costume-halloween_us_58137c8de4b064e1b4b1ff13 …</t>
         </is>
@@ -5719,24 +6579,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="D173" t="n">
         <v>58</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>87</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>404</v>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>Visiting Raisbeck Aviation High School today was so inspiring for me. Awesome students. https://twitter.com/SuptEnfield/status/789564039210815488 …</t>
         </is>
@@ -5750,24 +6615,29 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>66</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>204</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>862</v>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>Stenciling the 7th and final tortoise onto this hardy and stalwart New Shepard capsule. #GradatimFerociter pic.twitter.com/ciB6rbNPqP</t>
         </is>
@@ -5781,24 +6651,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>64</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>105</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>470</v>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['#InFlightEscape']</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>Steering through violent MaxQ escape forces is a residual capability, not explicitly engineered. Just a very robust booster. #InFlightEscape</t>
         </is>
@@ -5812,24 +6687,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>32</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>202</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>450</v>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['#InFlightEscape']</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t xml:space="preserve">Here’s escape vid in slow mo. #InFlightEscape https://youtu.be/_zWkvm7HpH8 </t>
         </is>
@@ -5843,24 +6723,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>94</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>239</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>1353</v>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['#InFlightEscape', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>Reflecting on an incredible day. Toasting all 800 of the passionate, brilliant folks at Blue Origin. #InFlightEscape #GradatimFerociter pic.twitter.com/KHJMYHvPud</t>
         </is>
@@ -5872,26 +6757,31 @@
           <t>2016-10-05T21:52:12</t>
         </is>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="D178" t="n">
         <v>21</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>328</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>887</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['#InFlightEscape', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>Moment of separation. #InFlightEscape #GradatimFerociter pic.twitter.com/mZrtmTm1i4</t>
         </is>
@@ -5905,24 +6795,29 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>164</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>2568</v>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>4611</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['#InFlightEscape', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t xml:space="preserve">That is one hell of a booster. #InFlightEscape #GradatimFerociter https://vine.co/v/56lBWlWJi7A </t>
         </is>
@@ -5934,26 +6829,31 @@
           <t>2016-10-05T14:52:18</t>
         </is>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>33</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>170</v>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>367</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['#InFlightEscape', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>Everything looking good this morning for #InFlightEscape. Live webcast at 10:45 am ET #GradatimFerociter</t>
         </is>
@@ -5965,26 +6865,31 @@
           <t>2016-10-03T21:20:10</t>
         </is>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="D181" t="n">
         <v>17</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>170</v>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>238</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['#InFlightEscape', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>Weather no-go for tomorrow’s New Shepard #InFlightEscape test. Webcast now Wednesday 10:45 am ET. #GradatimFerociter</t>
         </is>
@@ -5998,24 +6903,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="D182" t="n">
         <v>32</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>119</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>315</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>And here are the details of the escape test http://tinyurl.com/jcz3r7l  #GradatimFerociter</t>
         </is>
@@ -6027,26 +6937,31 @@
           <t>2016-09-29T15:39:29</t>
         </is>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>14</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>210</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>342</v>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['#InFlightEscape', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>Dramatic New Shepard #InFlightEscape test Tuesday, Oct 4. Live webcast starts at 10:50 am ET at http://blueorigin.com  #GradatimFerociter pic.twitter.com/T6TBwhKGGX</t>
         </is>
@@ -6060,24 +6975,29 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C184" t="n">
+      <c r="D184" t="n">
         <v>34</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>329</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>779</v>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['#NewGlenn', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>And here’s the #NewGlenn descent configuration. #GradatimFerociter pic.twitter.com/nYSgZ4TzKA</t>
         </is>
@@ -6091,24 +7011,29 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="D185" t="n">
         <v>30</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>371</v>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>990</v>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['#NewGlenn']</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>Exciting results from 3 weeks of wind tunnel testing of #NewGlenn at transonic &amp; supersonic speeds. Validated our CFD. pic.twitter.com/VJaNG8tjZK</t>
         </is>
@@ -6122,24 +7047,29 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>18</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>59</v>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>299</v>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['#NewGlenn']</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>.Thanks @TheRealBuzz &amp; @HeinleinPrize – what a fun night! https://twitter.com/TheRealBuzz/status/776265130405466112 …</t>
         </is>
@@ -6153,24 +7083,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="D187" t="n">
         <v>125</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>1406</v>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>2423</v>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['#NewGlenn', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>Blue Origin’s next step…meet New Glenn #NewGlenn #GradatimFerociter pic.twitter.com/p4gICKZRfi</t>
         </is>
@@ -6184,24 +7119,29 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="D188" t="n">
         <v>156</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>738</v>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>1220</v>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t xml:space="preserve">.@matteorenzi excited to announce Amazon artificial intelligence &amp; machine learning center in Turin http://bit.ly/29RTZj3 </t>
         </is>
@@ -6215,24 +7155,29 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
         <v>46</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>232</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>573</v>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>Grazie @matteorenzi for wonderful conversation at Palazzo Vecchio. pic.twitter.com/JGewdL8LAc</t>
         </is>
@@ -6246,24 +7191,29 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C190" t="n">
+      <c r="D190" t="n">
         <v>22</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>198</v>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>427</v>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t xml:space="preserve">Cool new project from @smithsonian &amp; @autodesk lets you virtually explore Apollo 11 Command Module. http://3d.si.edu/apollo11CM </t>
         </is>
@@ -6277,24 +7227,29 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C191" t="n">
+      <c r="D191" t="n">
         <v>54</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>405</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>1092</v>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['#StarTrekBeyond']</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t xml:space="preserve">Bucket list. Cast, crew and Justin Lin @trailingjohnson were amazing. #StarTrekBeyond https://vine.co/v/5Z21YWeLQzr </t>
         </is>
@@ -6308,24 +7263,29 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C192" t="n">
+      <c r="D192" t="n">
         <v>15</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>54</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>218</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>.@trailingjohnson Amazing experience. Thank you! https://twitter.com/trailingjohnson/status/755782338798161920 …</t>
         </is>
@@ -6339,24 +7299,29 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C193" t="n">
+      <c r="D193" t="n">
         <v>77</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>206</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>829</v>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['#RocketsReused', '#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>Careful engineering plus of course … the lucky boots. Successful mission. #RocketsReused #GradatimFerociter pic.twitter.com/ON5lhfGPSK</t>
         </is>
@@ -6370,24 +7335,29 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C194" t="n">
+      <c r="D194" t="n">
         <v>37</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>115</v>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>326</v>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>Loading propellants. Looking good for this morning’s launch. #GradatimFerociter</t>
         </is>
@@ -6401,24 +7371,29 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C195" t="n">
+      <c r="D195" t="n">
         <v>27</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>153</v>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>516</v>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>Thanks @VirginGalactic! So agree space needs all of us. #GradatimFerociter https://twitter.com/virgingalactic/status/743839423964426241 …</t>
         </is>
@@ -6432,24 +7407,29 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
         <v>22</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>49</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>172</v>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>And of course – development test flight – anything can happen. #GradatimFerociter</t>
         </is>
@@ -6463,24 +7443,29 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C197" t="n">
+      <c r="D197" t="n">
         <v>10</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>76</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>196</v>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>Look for one-chute-out test starting about 7 minutes into flight + continue pushing envelope on booster. #GradatimFerociter</t>
         </is>
@@ -6494,24 +7479,29 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C198" t="n">
+      <c r="D198" t="n">
         <v>13</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>87</v>
       </c>
-      <c r="E198" t="n">
+      <c r="F198" t="n">
         <v>269</v>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>Watching a rocket launch (and rocket landing!) might add a little extra fun w/ kids on Father's Day. #GradatimFerociter</t>
         </is>
@@ -6525,24 +7515,29 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>24</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>328</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>412</v>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>New Shepard launch set for Sunday at 10:15 am ET. Live webcast starts at 9:45 am ET at http://www.blueorigin.com  #GradatimFerociter</t>
         </is>
@@ -6556,24 +7551,29 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="D200" t="n">
         <v>32</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>126</v>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>302</v>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>Replacing leaking O-ring in capsule’s nitrogen gas pressurization system. Rescheduling flight to Sunday. #GradatimFerociter</t>
         </is>
@@ -6587,24 +7587,29 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>23</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>148</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>436</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>Flight to test one-chute-out failure scenario &amp; push envelope on booster maneuvers #GradatimFerociter pic.twitter.com/oWIGMqMCoa</t>
         </is>
@@ -6618,24 +7623,29 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C202" t="n">
+      <c r="D202" t="n">
         <v>42</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>382</v>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>755</v>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>Trying for 4th flight of same hardware this Friday. Live webcast at http://www.blueorigin.com/  #GradatimFerociter pic.twitter.com/AKyv3newmN</t>
         </is>
@@ -6647,26 +7657,31 @@
           <t>2016-06-01T04:12:13</t>
         </is>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C203" t="n">
+      <c r="D203" t="n">
         <v>19</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>62</v>
       </c>
-      <c r="E203" t="n">
+      <c r="F203" t="n">
         <v>172</v>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['#CareerChoice', '#CodeCon']</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t xml:space="preserve">Interested in the #CareerChoice program @JeffBezos mentioned at @recode #CodeCon? DM me or find out more here: http://amazon.com/careerchoice </t>
         </is>
@@ -6680,24 +7695,29 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>117</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>271</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>542</v>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>Landing sequence caught by our GH2 vent cam. Watch for gear deployment in the shadow. #GradatimFerociter https://www.youtube.com/watch?v=JNPpdHYD8jo …</t>
         </is>
@@ -6711,24 +7731,29 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C205" t="n">
+      <c r="D205" t="n">
         <v>80</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>123</v>
       </c>
-      <c r="E205" t="n">
+      <c r="F205" t="n">
         <v>340</v>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>Thank you @FLOTUS for all you do with @JoiningForces. We're excited to add 25K more @Amazon Warriors to our ranks. https://www.amazon.com/p/feature/ch9nzgzhrjh59ty#JoiningForces …</t>
         </is>
@@ -6742,24 +7767,29 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C206" t="n">
+      <c r="D206" t="n">
         <v>37</v>
       </c>
-      <c r="D206" t="n">
+      <c r="E206" t="n">
         <v>63</v>
       </c>
-      <c r="E206" t="n">
+      <c r="F206" t="n">
         <v>298</v>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['#Alexa']</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>Ridiculously cute. #Alexa https://twitter.com/mrw/status/725050654574698500 …</t>
         </is>
@@ -6773,24 +7803,29 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C207" t="n">
+      <c r="D207" t="n">
         <v>56</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>104</v>
       </c>
-      <c r="E207" t="n">
+      <c r="F207" t="n">
         <v>389</v>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>Champagne cracked in the newsroom today. Congratulations to all @washingtonpost on Pulitzers!</t>
         </is>
@@ -6804,24 +7839,29 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>11</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>123</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>410</v>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>You counseled so many. Your wisdom and warmth will be remembered. Rest in peace Bill Campbell.</t>
         </is>
@@ -6835,24 +7875,29 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C209" t="n">
+      <c r="D209" t="n">
         <v>39</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>199</v>
       </c>
-      <c r="E209" t="n">
+      <c r="F209" t="n">
         <v>487</v>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t xml:space="preserve">Thank you and congrats to my friends and colleagues Jeff and Andy – very well deserved! http://amzn.to/1S0t5Gm </t>
         </is>
@@ -6866,24 +7911,29 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C210" t="n">
+      <c r="D210" t="n">
         <v>221</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>1137</v>
       </c>
-      <c r="E210" t="n">
+      <c r="F210" t="n">
         <v>1587</v>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>Heads up readers – all-new, top of the line Kindle almost ready. 8th generation. Details next week.</t>
         </is>
@@ -6897,24 +7947,29 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>84</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>706</v>
       </c>
-      <c r="E211" t="n">
+      <c r="F211" t="n">
         <v>963</v>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>Video from yesterday's flight now live: http://bit.ly/1Y9cqBM  Great view of dramatic booster deceleration.</t>
         </is>
@@ -6928,24 +7983,29 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C212" t="n">
+      <c r="D212" t="n">
         <v>32</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>122</v>
       </c>
-      <c r="E212" t="n">
+      <c r="F212" t="n">
         <v>354</v>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>['#GradatimFerociter']</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>We’ll share mission video including aerial as soon as we’re able to get it processed.#GradatimFerociter @BlueOrigin</t>
         </is>
@@ -6959,24 +8019,29 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C213" t="n">
+      <c r="D213" t="n">
         <v>33</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>63</v>
       </c>
-      <c r="E213" t="n">
+      <c r="F213" t="n">
         <v>312</v>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>My Gradatim Ferociter boots. Gift from a friend &amp; they brought luck today. #LaunchLandRepeat @BlueOrigin pic.twitter.com/3szqLGMI7s</t>
         </is>
@@ -6990,24 +8055,29 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="D214" t="n">
         <v>42</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>223</v>
       </c>
-      <c r="E214" t="n">
+      <c r="F214" t="n">
         <v>485</v>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>CC touchdown confirmed. #LaunchLandRepeat @BlueOrigin</t>
         </is>
@@ -7021,24 +8091,29 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>31</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>297</v>
       </c>
-      <c r="E215" t="n">
+      <c r="F215" t="n">
         <v>544</v>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>Flawless BE-3 restart and perfect booster landing. CC chutes
 deployed. @BlueOrigin</t>
@@ -7053,24 +8128,29 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>26</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>106</v>
       </c>
-      <c r="E216" t="n">
+      <c r="F216" t="n">
         <v>246</v>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>Liftoff and New Shepard is climbing to apogee. @BlueOrigin</t>
         </is>
@@ -7084,24 +8164,29 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C217" t="n">
+      <c r="D217" t="n">
         <v>24</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>142</v>
       </c>
-      <c r="E217" t="n">
+      <c r="F217" t="n">
         <v>354</v>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>Crew Capsule is locked &amp; ready for flt. Tortoises mark successful CC missions. #LaunchLandRepeat @BlueOrigin pic.twitter.com/akPaP9EFIu</t>
         </is>
@@ -7115,24 +8200,29 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>26</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>134</v>
       </c>
-      <c r="E218" t="n">
+      <c r="F218" t="n">
         <v>350</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>Readying Crew Capsule for flt. Clear skies in TX.
 Tracking for morning launch. #LaunchLandRepeat @BlueOrigin pic.twitter.com/X22DBlf9ZE</t>
@@ -7147,24 +8237,29 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="D219" t="n">
         <v>8</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>99</v>
       </c>
-      <c r="E219" t="n">
+      <c r="F219" t="n">
         <v>200</v>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t xml:space="preserve">Two university microgravity experiments on tomorrow’s @blueorigin flight. Short vids: http://bit.ly/22WxaDK http://bit.ly/25BC5bV </t>
         </is>
@@ -7178,24 +8273,29 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>19</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>95</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>251</v>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>We’ll have drone cameras in the air and hopefully will get good aerial footage to share. #LaunchLandRepeat @BlueOrigin</t>
         </is>
@@ -7209,24 +8309,29 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C221" t="n">
+      <c r="D221" t="n">
         <v>15</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>53</v>
       </c>
-      <c r="E221" t="n">
+      <c r="F221" t="n">
         <v>163</v>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>Also, a new more efficient RCS algorithm on the Crew Capsule. Big performance win if it works. #LaunchLandRepeat @BlueOrigin</t>
         </is>
@@ -7240,24 +8345,29 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C222" t="n">
+      <c r="D222" t="n">
         <v>9</v>
       </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
         <v>72</v>
       </c>
-      <c r="E222" t="n">
+      <c r="F222" t="n">
         <v>207</v>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>Pushing the envelope. Restarting BE-3 fast @ high thrust, just 3600 ft from ground. Impact in 6 sec if engine doesn’t restart &amp; ramp fast.</t>
         </is>
@@ -7271,24 +8381,29 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C223" t="n">
+      <c r="D223" t="n">
         <v>42</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>326</v>
       </c>
-      <c r="E223" t="n">
+      <c r="F223" t="n">
         <v>652</v>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>['#LaunchLandRepeat']</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>Working to fly again tomorrow. Same vehicle. Third time. #LaunchLandRepeat @BlueOrigin pic.twitter.com/e1ZfYAibK2</t>
         </is>
@@ -7302,24 +8417,29 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C224" t="n">
+      <c r="D224" t="n">
         <v>34</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>332</v>
       </c>
-      <c r="E224" t="n">
+      <c r="F224" t="n">
         <v>771</v>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t xml:space="preserve">Got a little help from Amazon Robotics on stage today at our All-Hands in Seattle   https://vine.co/v/ijADIEPIXrd </t>
         </is>
@@ -7333,24 +8453,29 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C225" t="n">
+      <c r="D225" t="n">
         <v>29</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>158</v>
       </c>
-      <c r="E225" t="n">
+      <c r="F225" t="n">
         <v>390</v>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t xml:space="preserve">OK, this is the most hilarious Echo video yet: http://bit.ly/1RpzMTf </t>
         </is>
@@ -7364,24 +8489,29 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C226" t="n">
+      <c r="D226" t="n">
         <v>17</v>
       </c>
-      <c r="D226" t="n">
+      <c r="E226" t="n">
         <v>245</v>
       </c>
-      <c r="E226" t="n">
+      <c r="F226" t="n">
         <v>464</v>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>James Hamilton’s retrospective on 10 years of AWS is excellent: http://bit.ly/1V82uth  Kudos and congrats to the whole team!</t>
         </is>
@@ -7395,24 +8525,29 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="D227" t="n">
         <v>29</v>
       </c>
-      <c r="D227" t="n">
+      <c r="E227" t="n">
         <v>55</v>
       </c>
-      <c r="E227" t="n">
+      <c r="F227" t="n">
         <v>171</v>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>['#BadAssReporting']</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>Marty's piece today is so inspiring. Thank you, @PostBaron! #BadAssReporting https://twitter.com/PostBaron/status/702469472305590273 …</t>
         </is>
@@ -7426,24 +8561,29 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C228" t="n">
+      <c r="D228" t="n">
         <v>48</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>363</v>
       </c>
-      <c r="E228" t="n">
+      <c r="F228" t="n">
         <v>665</v>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>['#LIGO']</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>Hope, somewhere in space-time, Einstein is seeing this. http://wapo.st/20OwPlg  #LIGO</t>
         </is>
@@ -7457,24 +8597,29 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C229" t="n">
+      <c r="D229" t="n">
         <v>35</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>724</v>
       </c>
-      <c r="E229" t="n">
+      <c r="F229" t="n">
         <v>761</v>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t xml:space="preserve">Mr. Prime Minister @matteorenzi, we are so proud of Diego. Great for Italy. Kudos to all! http://amzn.to/1Xji2d0 </t>
         </is>
@@ -7488,24 +8633,29 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C230" t="n">
+      <c r="D230" t="n">
         <v>31</v>
       </c>
-      <c r="D230" t="n">
+      <c r="E230" t="n">
         <v>93</v>
       </c>
-      <c r="E230" t="n">
+      <c r="F230" t="n">
         <v>299</v>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t xml:space="preserve">Nice. Blue Origin team just nominated for time-honored aviation award, the Collier Trophy! All the nominees here: http://bit.ly/1KW4soK </t>
         </is>
@@ -7519,24 +8669,29 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C231" t="n">
+      <c r="D231" t="n">
         <v>141</v>
       </c>
-      <c r="D231" t="n">
+      <c r="E231" t="n">
         <v>762</v>
       </c>
-      <c r="E231" t="n">
+      <c r="F231" t="n">
         <v>1038</v>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t xml:space="preserve">Can a used rocket fly? Video + a few technical details at http://www.blueorigin.com/news http://bit.ly/1S0rx1t </t>
         </is>
@@ -7550,24 +8705,29 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C232" t="n">
+      <c r="D232" t="n">
         <v>59</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>564</v>
       </c>
-      <c r="E232" t="n">
+      <c r="F232" t="n">
         <v>1848</v>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>Impressive launch and @SpaceX will soon make Falcon 9 landings routine – so good for space! Kudos SpaceX!</t>
         </is>
@@ -7581,24 +8741,29 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C233" t="n">
+      <c r="D233" t="n">
         <v>48</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>305</v>
       </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
         <v>690</v>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>['#JasonIsFree']</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>Believe me, if you’re ever tossed in a foreign prison, you want Fred Ryan and Marty Baron on the team working to get you out. #JasonIsFree</t>
         </is>
@@ -7612,24 +8777,29 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C234" t="n">
+      <c r="D234" t="n">
         <v>25</v>
       </c>
-      <c r="D234" t="n">
+      <c r="E234" t="n">
         <v>298</v>
       </c>
-      <c r="E234" t="n">
+      <c r="F234" t="n">
         <v>634</v>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>['#JasonIsFree']</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>Wheels up and out of Iranian airspace! Jason, Yegi, and Mary aboard. Doug Jehl and Ali Rezaian worked tirelessly on this. #JasonIsFree</t>
         </is>
@@ -7643,24 +8813,29 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C235" t="n">
+      <c r="D235" t="n">
         <v>19</v>
       </c>
-      <c r="D235" t="n">
+      <c r="E235" t="n">
         <v>48</v>
       </c>
-      <c r="E235" t="n">
+      <c r="F235" t="n">
         <v>176</v>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>['#JasonIsFree']</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>Is Yegi on the plane? #JasonIsFree</t>
         </is>
@@ -7674,24 +8849,29 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C236" t="n">
+      <c r="D236" t="n">
         <v>31</v>
       </c>
-      <c r="D236" t="n">
+      <c r="E236" t="n">
         <v>165</v>
       </c>
-      <c r="E236" t="n">
+      <c r="F236" t="n">
         <v>322</v>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
+      <c r="H236" t="inlineStr">
         <is>
           <t xml:space="preserve">Grail: Risky, but if works, big breakthrough in broad spectrum EARLY cancer detection. Brilliant scientists. http://bit.ly/1RAtrFL </t>
         </is>
@@ -7705,24 +8885,29 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>1025</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>1366</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>2476</v>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>Congrats @SpaceX on landing Falcon's suborbital booster stage.  Welcome to the club!</t>
         </is>
@@ -7736,24 +8921,29 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C238" t="n">
+      <c r="D238" t="n">
         <v>1053</v>
       </c>
-      <c r="D238" t="n">
+      <c r="E238" t="n">
         <v>8004</v>
       </c>
-      <c r="E238" t="n">
+      <c r="F238" t="n">
         <v>10026</v>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>['#sendDonaldtospace']</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t xml:space="preserve">Finally trashed by @realDonaldTrump. Will still reserve him a seat on the Blue Origin rocket. #sendDonaldtospace http://bit.ly/1OpyW5N </t>
         </is>
@@ -7767,24 +8957,29 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C239" t="n">
+      <c r="D239" t="n">
         <v>59</v>
       </c>
-      <c r="D239" t="n">
+      <c r="E239" t="n">
         <v>514</v>
       </c>
-      <c r="E239" t="n">
+      <c r="F239" t="n">
         <v>888</v>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="H239" t="inlineStr">
         <is>
           <t xml:space="preserve">What 400 very happy rocket scientists look like. http://bit.ly/1LRcPAJ </t>
         </is>
@@ -7798,24 +8993,29 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C240" t="n">
+      <c r="D240" t="n">
         <v>42</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>239</v>
       </c>
-      <c r="E240" t="n">
+      <c r="F240" t="n">
         <v>578</v>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>Breakthrough Energy Coalition. When in a box, only way out is to invent your way out. Thx to @BillGates for pulling this together.</t>
         </is>
@@ -7829,30 +9029,277 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>526</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>6124</v>
       </c>
-      <c r="E241" t="n">
+      <c r="F241" t="n">
         <v>5803</v>
       </c>
-      <c r="F241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t xml:space="preserve">The rarest of beasts - a used rocket. Controlled landing not easy, but done right, can look easy. Check out video: http://bit.ly/1OpyW5N </t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B155" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B156" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B157" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B158" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B159" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B160" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B161" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B162" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B163" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B164" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B165" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B166" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B167" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B168" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B169" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B170" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B171" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B172" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B173" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B174" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B175" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B176" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B177" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B178" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B179" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B180" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B181" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B182" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B183" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B184" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B185" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B186" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B187" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B188" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B189" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B190" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B191" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B192" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B193" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B194" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B195" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B196" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B197" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B198" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B199" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B200" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B201" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B202" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B203" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B204" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B205" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B206" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B207" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B208" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B209" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B210" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B211" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B212" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B213" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B214" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B215" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B216" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B217" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B218" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B219" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B220" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B221" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B222" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B223" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B224" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B225" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B226" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B227" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B228" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B229" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B230" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B231" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B232" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B233" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B234" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B235" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B236" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B237" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B238" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B239" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B240" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B241" r:id="rId240"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7874,7 +9321,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
